--- a/spec/ASW/Eng/ETS/ASD/ASDdc/ASDdc_Governor/ASDdc_Governor.xlsx
+++ b/spec/ASW/Eng/ETS/ASD/ASDdc/ASDdc_Governor/ASDdc_Governor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\ETS\ASD\ASDdc\ASDdc_Governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB5583D-C9C2-45C3-8B3E-C671B0D8444B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -71,13 +71,187 @@
   <si>
     <t>InitialValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>CoEng_st</t>
+  </si>
+  <si>
+    <t>Engine coordinator state</t>
+  </si>
+  <si>
+    <t>VehV_v</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>Vehicle speed</t>
+  </si>
+  <si>
+    <t>Epm_nEng</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Engine speed</t>
+  </si>
+  <si>
+    <t>DSM_bASDdc</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>state of Fid_ASDDc</t>
+  </si>
+  <si>
+    <t>Tra_numGear</t>
+  </si>
+  <si>
+    <t>Current gear information</t>
+  </si>
+  <si>
+    <t>PthSet_stOvrRun</t>
+  </si>
+  <si>
+    <t>State of overrun detection (0: No overrun; 1: overrun)</t>
+  </si>
+  <si>
+    <t>ASDdc_trq</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>ASD disturbance compensator torque output</t>
+  </si>
+  <si>
+    <t>ASDdc_trqFrstDT1_mp</t>
+  </si>
+  <si>
+    <t>Min. permitted torque by gradient limitation</t>
+  </si>
+  <si>
+    <t>ASDdc_trqUnLtd_mp</t>
+  </si>
+  <si>
+    <t>ASD disturbance compensator torque output before limitation</t>
+  </si>
+  <si>
+    <t>ASDdc_stInitFrst_mp</t>
+  </si>
+  <si>
+    <t>Indicator for initialisation</t>
+  </si>
+  <si>
+    <t>ASDdc_nInitXFrst_mp</t>
+  </si>
+  <si>
+    <t>ASDdc_trqInitYFrst_mp</t>
+  </si>
+  <si>
+    <t>Initialisation value for ASDDc 1st torque</t>
+  </si>
+  <si>
+    <t>ASDdc_stInitScnd_mp</t>
+  </si>
+  <si>
+    <t>ASDdc_trqInitXScnd_mp</t>
+  </si>
+  <si>
+    <t>Initialisation value for ASDDc 2nd torque</t>
+  </si>
+  <si>
+    <t>ASDdc_trqInitYScnd_mp</t>
+  </si>
+  <si>
+    <t>ASDdc_vLimIni_C</t>
+  </si>
+  <si>
+    <t>ASD disturbance compensator speed limit for initialisation / deactivation</t>
+  </si>
+  <si>
+    <t>ASDdc_trqLimMin_C</t>
+  </si>
+  <si>
+    <t>ASD disturbance compensator output limitation maximum</t>
+  </si>
+  <si>
+    <t>ASDdc_trqLimMax_C</t>
+  </si>
+  <si>
+    <t>ASD disturbance compensator output limitation minximum</t>
+  </si>
+  <si>
+    <t>PthSet_trqASDdcInit_C</t>
+  </si>
+  <si>
+    <t>Initialisation value for disturbance control when overridung overrun shut off</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrLimSet</t>
+  </si>
+  <si>
+    <t>Limitation torque without the part of the speed governor</t>
+  </si>
+  <si>
+    <t>SpdGov_trqSet</t>
+  </si>
+  <si>
+    <t>Set point torque of SpdGov on the fuel path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoETS_trqInrLtd</t>
+  </si>
+  <si>
+    <t>inner torque set value after limitation, before AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDrf_trqInrSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASD reference filter torque output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDrf_swtLim_C</t>
+  </si>
+  <si>
+    <t>Switch to choose limitation of ASDrf_trqInr to CoETS_trqInrLtd</t>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>Enum:EngState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraGear</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>Velocity_kmph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +284,25 @@
       <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -151,13 +344,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,10 +371,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{4D316B52-B978-4B12-B313-0026ED904CD3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,15 +671,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="4" customWidth="1"/>
     <col min="2" max="4" width="9" style="5"/>
     <col min="5" max="5" width="14.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
@@ -501,6 +714,222 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>250</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-128</v>
+      </c>
+      <c r="C6" s="5">
+        <v>127</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-3000</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-3000</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-3000</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +983,58 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="8">
+        <v>-3000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1087,208 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-6000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -614,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,7 +1314,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,25 +1340,145 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>250</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>255</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E12" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
@@ -728,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
